--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -30,9 +30,6 @@
     <t>RealWheels</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>http://davaocity.chaosads.ph/item/165013/</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>https://www.dabest.ph</t>
   </si>
   <si>
@@ -58,13 +52,76 @@
   </si>
   <si>
     <t>login: realbreezemark@gmail.com / realbreeze</t>
+  </si>
+  <si>
+    <t>http://www.seobacklinksites.com/list-of-40-free-ad-posting-sites-which-gives-dofollow-backlinks/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login / username </t>
+  </si>
+  <si>
+    <t>realbreeze</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>http://www.postads.ph</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com / realbreeze</t>
+  </si>
+  <si>
+    <t>https://www.istorya.net</t>
+  </si>
+  <si>
+    <t>realbreezemark@gmail.com / realbreezeph</t>
+  </si>
+  <si>
+    <t>no ads</t>
+  </si>
+  <si>
+    <t>http://www.adpost.com/</t>
+  </si>
+  <si>
+    <t>https://las-pinas-city-ncr-ph.global-free-classified-ads.com</t>
+  </si>
+  <si>
+    <t>123realbreeze</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOFOLLOW -  </t>
+  </si>
+  <si>
+    <t>http://davao-city-das-ph.global-free-classified-ads.com/index.php?a=2&amp;b=8923267</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN: </t>
+  </si>
+  <si>
+    <t>WEBISTE</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/978807-RealBreeze-Davao-Tour.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,14 +164,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,14 +186,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,20 +488,28 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="5" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -461,74 +519,151 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="G13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/978807-RealBreeze-Davao-Tour.html</t>
+  </si>
+  <si>
+    <t>locanto.ph</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1703613794/Sohoton-Tour-2days-1night.html</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1703187572/Water-Rafting-in-Davao-City.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1703151843/Samal-Scuba-Diving-Tour.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1703141436/Buda-Marilog-Tour.html</t>
+  </si>
+  <si>
+    <t>cebuclassified.com</t>
+  </si>
+  <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1818435-mt-apo-lake-agco-tour</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1818436-samal-island-hopping-davao-del-sur</t>
   </si>
 </sst>
 </file>
@@ -186,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,6 +225,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,11 +603,11 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
         <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -656,14 +687,79 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="E12" r:id="rId2"/>
     <hyperlink ref="G13" r:id="rId3"/>
+    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="G15" r:id="rId5"/>
+    <hyperlink ref="G16" r:id="rId6"/>
+    <hyperlink ref="G17" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G20" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -123,9 +123,6 @@
     <t>http://davao.locanto.ph/ID_1703613794/Sohoton-Tour-2days-1night.html</t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>http://davao.locanto.ph/ID_1703187572/Water-Rafting-in-Davao-City.html</t>
   </si>
   <si>
@@ -151,6 +148,15 @@
   </si>
   <si>
     <t>http://davao.locanto.ph/ID_1709385452/Mountain-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1715509841/Pearl-Farm-Beach-Resort.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1715749828/Davao-City-Tour-Pacakge-Realbreeze-Travels-and-Tours.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1715816662/Mati-Davao-Oriental-Travel.html</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +725,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -730,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,39 +744,69 @@
         <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="5" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +818,13 @@
     <hyperlink ref="G15" r:id="rId5"/>
     <hyperlink ref="G16" r:id="rId6"/>
     <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G21" r:id="rId8"/>
-    <hyperlink ref="G22" r:id="rId9"/>
+    <hyperlink ref="G23" r:id="rId8"/>
+    <hyperlink ref="G24" r:id="rId9"/>
     <hyperlink ref="G18" r:id="rId10"/>
     <hyperlink ref="G19" r:id="rId11"/>
+    <hyperlink ref="G20" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
+    <hyperlink ref="G22" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>http://www.cebuclassifieds.com/ad/1818436-samal-island-hopping-davao-del-sur</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1709333145/Davao-Budget-Tour-3D-2N.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1709385452/Mountain-Tour-Package.html</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,8 +525,10 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="103.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -623,6 +631,9 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -654,6 +665,9 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -727,25 +741,35 @@
         <v>37</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="5" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -758,8 +782,10 @@
     <hyperlink ref="G15" r:id="rId5"/>
     <hyperlink ref="G16" r:id="rId6"/>
     <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G19" r:id="rId8"/>
-    <hyperlink ref="G20" r:id="rId9"/>
+    <hyperlink ref="G21" r:id="rId8"/>
+    <hyperlink ref="G22" r:id="rId9"/>
+    <hyperlink ref="G18" r:id="rId10"/>
+    <hyperlink ref="G19" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>http://davao.locanto.ph/ID_1715816662/Mati-Davao-Oriental-Travel.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1731422267/Davao-to-Lake-Agco-Mt-Apo.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1731341938/Realbreeze-Davao-Tour-Surigao-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1731278856/RealbreezeDavaoTour-Camiguin-Tour-Package.html</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,24 +797,48 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="5" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -818,13 +851,16 @@
     <hyperlink ref="G15" r:id="rId5"/>
     <hyperlink ref="G16" r:id="rId6"/>
     <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G23" r:id="rId8"/>
-    <hyperlink ref="G24" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId8"/>
+    <hyperlink ref="G27" r:id="rId9"/>
     <hyperlink ref="G18" r:id="rId10"/>
     <hyperlink ref="G19" r:id="rId11"/>
     <hyperlink ref="G20" r:id="rId12"/>
     <hyperlink ref="G21" r:id="rId13"/>
     <hyperlink ref="G22" r:id="rId14"/>
+    <hyperlink ref="G23" r:id="rId15"/>
+    <hyperlink ref="G24" r:id="rId16"/>
+    <hyperlink ref="G25" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">NOFOLLOW -  </t>
   </si>
   <si>
-    <t>http://davao-city-das-ph.global-free-classified-ads.com/index.php?a=2&amp;b=8923267</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
@@ -166,6 +163,33 @@
   </si>
   <si>
     <t>http://davao.locanto.ph/ID_1731278856/RealbreezeDavaoTour-Camiguin-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1819923-buda-marilog-travel-package</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1819918-davao-city-tour-in-3d2n</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1819917-mati-davao-oriental-tour-package</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1819915-davao-to-mt-apo-lake-agco-tour-package</t>
+  </si>
+  <si>
+    <t>http://www.cebuclassifieds.com/ad/1818512-perl-farm-beach-resort-tour</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-city-country-side-tour-package-it8969642.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-white-water-rafting-it8969645.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-mountain-amp-nature-parks-tour-realbreeze-davao-tour-it8960691.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/realbreeze-davao-travels-and-tours-davao-tour-it8923267.html</t>
   </si>
 </sst>
 </file>
@@ -237,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,7 +270,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -528,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +585,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -574,13 +597,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -612,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -638,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
@@ -689,7 +712,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -698,169 +721,200 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="5" t="s">
-        <v>40</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G14" r:id="rId4"/>
-    <hyperlink ref="G15" r:id="rId5"/>
-    <hyperlink ref="G16" r:id="rId6"/>
-    <hyperlink ref="G17" r:id="rId7"/>
-    <hyperlink ref="G26" r:id="rId8"/>
-    <hyperlink ref="G27" r:id="rId9"/>
-    <hyperlink ref="G18" r:id="rId10"/>
-    <hyperlink ref="G19" r:id="rId11"/>
-    <hyperlink ref="G20" r:id="rId12"/>
-    <hyperlink ref="G21" r:id="rId13"/>
-    <hyperlink ref="G22" r:id="rId14"/>
-    <hyperlink ref="G23" r:id="rId15"/>
-    <hyperlink ref="G24" r:id="rId16"/>
-    <hyperlink ref="G25" r:id="rId17"/>
+    <hyperlink ref="E12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/realbreeze-davao-travels-and-tours-davao-tour-it8923267.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-city-marilog-buda-tour-package-it8975984.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-samal-island-scuba-diving-package-it8976016.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/samal-inland-tour-davao-city-it8976019.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/sohoton-tour-package-2d1n-it8984777.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/pearl-farm-beach-resort-it8984814.html</t>
   </si>
 </sst>
 </file>
@@ -551,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +741,9 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" t="s">
         <v>54</v>
       </c>
@@ -735,6 +753,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="G14" s="5" t="s">
         <v>55</v>
@@ -743,6 +764,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="G15" t="s">
         <v>56</v>
@@ -750,79 +774,88 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="G18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,7 +887,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,60 +895,128 @@
         <v>29</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F35" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="6" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="6" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="6" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="6" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="6" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E12" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/pearl-farm-beach-resort-it8984814.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/camiguin-tour-package-philippines-it8993666.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/samal-island-hopping-it8993758.html</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,10 +821,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" s="7"/>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -827,43 +833,45 @@
       </c>
       <c r="E21" s="7"/>
       <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="G22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +887,7 @@
         <v>29</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,7 +895,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,7 +903,7 @@
         <v>29</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,7 +927,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -927,7 +935,7 @@
         <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +943,7 @@
         <v>29</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,32 +951,32 @@
         <v>29</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,7 +984,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +992,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +1000,7 @@
         <v>29</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,7 +1008,7 @@
         <v>29</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,6 +1016,14 @@
         <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>52</v>
       </c>
     </row>

--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -211,6 +211,42 @@
   </si>
   <si>
     <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/samal-island-hopping-it8993758.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1764924620/Davao-City-Tour-Package-Experience.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1764922575/Davao-City-Country-Side-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>http://davao.locanto.ph/ID_1764916659/Samal-Davao-Del-Sur-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-city-budget-tour-it9025662.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/mati-davao-oriental-package-tour-it9025688.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/surigao-package-tour-it9025690.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/davao-city-to-mt-apo-lake-agco-tour-it9025691.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/987564-Samal-Island-Scuba-Diving-Package-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/987566-Bucas-Grande-Siargao-Bonus-Tour.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/987568-Mati-Davao-Oriental-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/987570-Seagull-Mountain-Resort-Davao-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/987572-Davao-to-Lake-Agco-Mt-Apo-.html</t>
   </si>
 </sst>
 </file>
@@ -572,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +622,7 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="103.140625" customWidth="1"/>
+    <col min="7" max="7" width="132.140625" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -821,6 +857,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="G20" t="s">
         <v>62</v>
@@ -847,79 +886,84 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -927,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +979,7 @@
         <v>29</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,12 +1003,12 @@
         <v>29</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -973,10 +1017,10 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +1028,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -992,7 +1036,7 @@
         <v>29</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,15 +1068,159 @@
         <v>29</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="G18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -247,6 +247,30 @@
   </si>
   <si>
     <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/987572-Davao-to-Lake-Agco-Mt-Apo-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/988030-Davao-Country-Side-Tour-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/988031-Surigao-Tour-Package-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/988032-Camiguin-Tour-Package.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/988034-Mati-Davao-Oriental-.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/988036-Davao-City-Tour.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/377-Other-Travel-Ads/988037-Davao-White-Water-Rafting.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/988040-Pearl-Farm-Beach-Resort.html</t>
+  </si>
+  <si>
+    <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/988041-Samal-Island-Hopping-Package-.html</t>
   </si>
 </sst>
 </file>
@@ -608,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,84 +1031,84 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>32</v>
+      <c r="G36" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>33</v>
+      <c r="G37" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>34</v>
+      <c r="G38" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>35</v>
+      <c r="G39" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>40</v>
+      <c r="G40" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>41</v>
+      <c r="G41" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>42</v>
+      <c r="G42" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>43</v>
+      <c r="G43" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
       <c r="G44" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1116,7 @@
         <v>29</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,7 +1132,7 @@
         <v>29</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1116,7 +1140,7 @@
         <v>29</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,7 +1148,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,7 +1156,7 @@
         <v>29</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,24 +1172,15 @@
         <v>29</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,7 +1212,7 @@
         <v>29</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,14 +1228,95 @@
         <v>29</v>
       </c>
       <c r="G59" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E12" r:id="rId1"/>
+    <hyperlink ref="G36" r:id="rId2"/>
+    <hyperlink ref="G37" r:id="rId3"/>
+    <hyperlink ref="G40" r:id="rId4"/>
+    <hyperlink ref="G38" r:id="rId5"/>
+    <hyperlink ref="G39" r:id="rId6"/>
+    <hyperlink ref="G41" r:id="rId7"/>
+    <hyperlink ref="G42" r:id="rId8"/>
+    <hyperlink ref="G43" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77680A5-B437-4524-A464-775C357C963C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RealWheels" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -271,12 +273,141 @@
   </si>
   <si>
     <t>http://www.adsriver.com/34/posts/20-Travel-Tickets/376--Vacation-Rentals/988041-Samal-Island-Hopping-Package-.html</t>
+  </si>
+  <si>
+    <t>Locanto.com.ph</t>
+  </si>
+  <si>
+    <t>https://davao.locanto.ph/ID_2913771881/Affordable-Van-Rental-in-Davao.html</t>
+  </si>
+  <si>
+    <t>RealWheels.com.ph</t>
+  </si>
+  <si>
+    <t>https://davao.locanto.ph/ID_2913824516/Affordable-Car-Rental-in-Davao-SUV.html</t>
+  </si>
+  <si>
+    <t>https://davao.locanto.ph/ID_2913938860/Affordable-Pickup-Car-Rental-in-Davao.html</t>
+  </si>
+  <si>
+    <t>https://davao.locanto.ph/ID_2913895583/Affordable-MPV-Car-Rental-in-Davao-City.html</t>
+  </si>
+  <si>
+    <t>https://davao.locanto.ph/ID_2913923369/Affordable-Sedan-Car-Rental-in-Davao.html</t>
+  </si>
+  <si>
+    <t>https://realbreezedavaotours.wordpress.com/2018/10/02/affordable-car-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>realbreezedavaotours.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://realbreezedavaotours.wordpress.com/2018/10/02/affordable-van-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://realbreezedavaotours.wordpress.com/2018/10/02/affordable-mpv-car-rental-in-davao-city/</t>
+  </si>
+  <si>
+    <t>https://realbreezedavaotours.wordpress.com/2018/10/02/affordable-sedan-car-rental-in-davao-2/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/2018/10/02/pickup-car-rental-davao/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/2018/10/02/affordable-van-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/2018/10/02/affordable-suv-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/2018/10/02/affordable-mpv-car-rental-in-davao-city/</t>
+  </si>
+  <si>
+    <t>https://surigaoparadisetravels.wordpress.com/2018/10/02/affordable-sedan-car-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>camiguinparadisetravels.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.wordpress.com/2018/10/03/affordable-van-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.wordpress.com/2018/10/03/affordable-suv-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.wordpress.com/2018/10/03/affordable-mpv-car-rental-in-davao-city/</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.wordpress.com/2018/10/03/affordable-sedan-car-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://camiguinparadisetravels.wordpress.com/2018/10/03/affordable-pickup-car-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>https://realbreezedavaotours.wordpress.com/2018/10/02/affordable-pickup-car-rental-in-davao/</t>
+  </si>
+  <si>
+    <t>boholadventuretours.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://boholadventuretours.wordpress.com/2018/10/03/affordable-pickup-car-rental-in-davao/?customize_changeset_uuid=72008746-bdff-4d55-b662-3e2af23ef99b&amp;customize_autosaved=on</t>
+  </si>
+  <si>
+    <t>https://boholadventuretours.wordpress.com/2018/10/03/affordable-sedan-car-rental-in-davao/?customize_changeset_uuid=72008746-bdff-4d55-b662-3e2af23ef99b&amp;customize_autosaved=on</t>
+  </si>
+  <si>
+    <t>https://boholadventuretours.wordpress.com/2018/10/03/affordable-mpv-car-rental-in-davao-city/?customize_changeset_uuid=72008746-bdff-4d55-b662-3e2af23ef99b&amp;customize_autosaved=on</t>
+  </si>
+  <si>
+    <t>https://boholadventuretours.wordpress.com/2018/10/03/affordable-van-rental-in-davao/?customize_changeset_uuid=72008746-bdff-4d55-b662-3e2af23ef99b&amp;customize_autosaved=on</t>
+  </si>
+  <si>
+    <t>https://boholadventuretours.wordpress.com/2018/10/03/affordable-suv-rental-in-davao/?customize_changeset_uuid=72008746-bdff-4d55-b662-3e2af23ef99b&amp;customize_autosaved=on</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/affordable-suv-rental-in-davao-it11004979.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/affordable-van-rental-in-davao-it11004980.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/affordable-mpv-car-rental-in-davao-city-it11004982.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/affordable-sedan-car-rental-in-davao-it11004986.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/listings/affordable-pickup-car-rental-in-davao-it11004993.html</t>
+  </si>
+  <si>
+    <t>https://davao-city-das-ph.global-free-classified-ads.com/</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/ad/1875277-affordable-pickup-car-rental-in-davao</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/ad/1875285-affordable-sedan-car-rental-in-davao</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/ad/1875290-affordable-mpv-car-rental-in-davao-city</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/ad/1875292-affordable-van-rental-in-davao</t>
+  </si>
+  <si>
+    <t>https://www.cebuclassifieds.com/ad/1875293-affordable-suv-rental-in-davao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,11 +762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,17 +1437,345 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="G36" r:id="rId2"/>
-    <hyperlink ref="G37" r:id="rId3"/>
-    <hyperlink ref="G40" r:id="rId4"/>
-    <hyperlink ref="G38" r:id="rId5"/>
-    <hyperlink ref="G39" r:id="rId6"/>
-    <hyperlink ref="G41" r:id="rId7"/>
-    <hyperlink ref="G42" r:id="rId8"/>
-    <hyperlink ref="G43" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G36" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G37" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G38" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G39" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G41" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G42" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C6252-F6AB-45E2-8956-144FCA6F60C8}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{5D05F39E-22E5-4187-A7A8-B91B4066DC54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/classifiedAds.xlsx
+++ b/classifiedAds.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77680A5-B437-4524-A464-775C357C963C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE17A3-86D8-4AC9-8E1C-00AA424163E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="RealWheels" sheetId="2" r:id="rId2"/>
+    <sheet name="Realwheels Ranking" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="158">
   <si>
     <t>RealBreeze</t>
   </si>
@@ -402,6 +403,99 @@
   </si>
   <si>
     <t>https://www.cebuclassifieds.com/ad/1875293-affordable-suv-rental-in-davao</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Car Rental Davao</t>
+  </si>
+  <si>
+    <t>Davao Car Rental</t>
+  </si>
+  <si>
+    <t>Car Rental Davao self Drive</t>
+  </si>
+  <si>
+    <t>Car Rental Davao with Driver</t>
+  </si>
+  <si>
+    <t>davao car rental with driver</t>
+  </si>
+  <si>
+    <t>davao car rental self drive</t>
+  </si>
+  <si>
+    <t>affordable car rental davao</t>
+  </si>
+  <si>
+    <t>cheap car rental davao</t>
+  </si>
+  <si>
+    <t>best car rental davao</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/4/108701226377115609645/posts/ikxvSLpriCY</t>
+  </si>
+  <si>
+    <t>nf</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/4/108701226377115609645/posts/L6W2CT5tNGd</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/4/108701226377115609645/posts/R7mDxvLLKfe</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/4/108701226377115609645/posts/gr1MfezSbSM</t>
+  </si>
+  <si>
+    <t>https://www.sheryna.ph/r.php</t>
+  </si>
+  <si>
+    <t>realbreezemark</t>
+  </si>
+  <si>
+    <t>123Realbreeze</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/u/4/108701226377115609645/posts/WP5qf45YdXt</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/2018/10/affordable-sedan-car-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/2018/10/affordable-mpv-car-rental-in-davao-city.html</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/2018/10/affordable-van-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/2018/10/affordable-suv-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/2018/10/affordable-pickup-car-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://visitdavaopackages.blogspot.com/</t>
+  </si>
+  <si>
+    <t>http://boholtraveladventures.blogspot.com/2018/10/affordable-suv-car-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://boholtraveladventures.blogspot.com/2018/10/affordable-pickup-car-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://boholtraveladventures.blogspot.com/2018/10/affordable-mpv-car-rental-in-davao-city.html</t>
+  </si>
+  <si>
+    <t>http://boholtraveladventures.blogspot.com/2018/10/affordable-van-rental-in-davao.html</t>
+  </si>
+  <si>
+    <t>http://boholtraveladventures.blogspot.com/2018/10/affordable-sedan-car-rental-in-davao.html</t>
   </si>
 </sst>
 </file>
@@ -473,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -482,6 +576,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>29</v>
       </c>
@@ -1419,7 +1514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>29</v>
       </c>
@@ -1427,12 +1522,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>29</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1454,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C6252-F6AB-45E2-8956-144FCA6F60C8}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
         <v>85</v>
@@ -1484,7 +1590,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -1492,7 +1598,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
@@ -1500,7 +1606,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>89</v>
@@ -1508,7 +1614,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
         <v>90</v>
@@ -1519,7 +1625,7 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>91</v>
@@ -1527,15 +1633,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
         <v>94</v>
@@ -1543,7 +1649,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
         <v>95</v>
@@ -1551,7 +1657,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
         <v>108</v>
@@ -1562,7 +1668,7 @@
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -1570,7 +1676,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
         <v>98</v>
@@ -1578,7 +1684,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>99</v>
@@ -1586,7 +1692,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
@@ -1594,7 +1700,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>101</v>
@@ -1605,7 +1711,7 @@
         <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>103</v>
@@ -1613,7 +1719,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -1621,7 +1727,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
         <v>105</v>
@@ -1629,7 +1735,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -1637,7 +1743,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>107</v>
@@ -1648,15 +1754,15 @@
         <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
@@ -1664,7 +1770,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>112</v>
@@ -1672,7 +1778,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
         <v>113</v>
@@ -1680,7 +1786,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
         <v>114</v>
@@ -1691,7 +1797,7 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>115</v>
@@ -1699,7 +1805,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
         <v>116</v>
@@ -1707,7 +1813,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>117</v>
@@ -1715,7 +1821,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>118</v>
@@ -1723,7 +1829,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
         <v>119</v>
@@ -1772,10 +1878,228 @@
         <v>126</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" xr:uid="{5D05F39E-22E5-4187-A7A8-B91B4066DC54}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{D49A4BEB-2BE4-44D7-9FCF-F59F003B60DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE6EA2E-FA91-4C28-9B6F-2DC99D50F6D2}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="8">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>